--- a/biology/Médecine/Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie/Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie.xlsx
+++ b/biology/Médecine/Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie/Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_th%C3%A9matique_de_recherche_en_sciences_de_la_sant%C3%A9_et_de_la_vie</t>
+          <t>Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Agence thématique de recherche en sciences de la santé et de la vie  (ATRSSV), instituée par décret exécutif n° 21-210 du 20 mai 2021[1], est un établissement public à caractère administratif (EPA) algérien. Elle a été créée lors de la dissolution de l'agence thématique de recherche en sciences de la nature et de la vie[2].
-Elle succède à l'Agence thématique de recherche en sciences de la santé, créée par le décret exécutif no 12-20 du  9 janvier 2012[3]. Cette dernière succède à l'Agence Nationale pour le Développement de la Recherche en Santé (ANDRS), instituée auparavant par le décret exécutif no 95-40 du 28 janvier 1995[4], qui était, de fait, opérationnelle depuis 1997.
+L'Agence thématique de recherche en sciences de la santé et de la vie  (ATRSSV), instituée par décret exécutif n° 21-210 du 20 mai 2021, est un établissement public à caractère administratif (EPA) algérien. Elle a été créée lors de la dissolution de l'agence thématique de recherche en sciences de la nature et de la vie.
+Elle succède à l'Agence thématique de recherche en sciences de la santé, créée par le décret exécutif no 12-20 du  9 janvier 2012. Cette dernière succède à l'Agence Nationale pour le Développement de la Recherche en Santé (ANDRS), instituée auparavant par le décret exécutif no 95-40 du 28 janvier 1995, qui était, de fait, opérationnelle depuis 1997.
 Sa vocation principale est le développement de la recherche intersectorielle en santé et dans le domaine des sciences biomédicales à travers les axes de recherche retenus dans le Programme National de Recherche en Santé (PNRS).
 L’ATRSSV est placée sous la tutelle du ministre chargé de la recherche scientifique.
 Son siège, initialement fixé à Alger, est transféré à Oran suivant le décret exécutif no 95-445 du 22 décembre 1995. Ce siège a pour localisation un pavillon de la cité du Chercheur (ex IAP)
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agence_th%C3%A9matique_de_recherche_en_sciences_de_la_sant%C3%A9_et_de_la_vie</t>
+          <t>Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les départements prévus sont :
 Département Programmation des projets de recherche (DPPR).
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agence_th%C3%A9matique_de_recherche_en_sciences_de_la_sant%C3%A9_et_de_la_vie</t>
+          <t>Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Missions statutaires de l’Agence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le cadre de l’amélioration de la santé publique en général et du développement de la recherche en sciences médicales en particulier, l’agence a pour missions de contribuer à la mise en œuvre et à la réalisation du Programme National de Recherche en Santé (PNRS). .
 À ce titre, elle est chargée :
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agence_th%C3%A9matique_de_recherche_en_sciences_de_la_sant%C3%A9_et_de_la_vie</t>
+          <t>Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Objectifs et impacts scientifiques et technologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maîtrise des techniques et de la méthodologie dans la recherche.
 Formation pour la recherche et par la recherche.
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agence_th%C3%A9matique_de_recherche_en_sciences_de_la_sant%C3%A9_et_de_la_vie</t>
+          <t>Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Objectifs et impacts socio-économiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Valorisation des produits de recherche par la rentabilisation des résultats et la création de filiales de production, mission dévolue à l’Agence Nationale de Valorisation des Résultats de la Recherche et du Développement technologique (ANVREDET).
 Amélioration du cadre de vie de la population par l’amélioration de la qualité et des techniques de soins.</t>
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agence_th%C3%A9matique_de_recherche_en_sciences_de_la_sant%C3%A9_et_de_la_vie</t>
+          <t>Agence_thématique_de_recherche_en_sciences_de_la_santé_et_de_la_vie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,7 +679,9 @@
           <t>Organes consultatifs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’agence est dotée d’un Conseil d’orientation et d’un Conseil scientifique, deux organes de réflexion et de délibération placés auprès du Directeur général, ayant pour rôle de traiter les questions d’ordre administratif et scientifique.
 L’organisation de l’agence a été renforcée par l’installation au mois de février 2006 d’un Comité d’éthique et de déontologie.
